--- a/Extras/RisikoAnalyse.xlsx
+++ b/Extras/RisikoAnalyse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eirik\Documents\Unity\JetJumpReboot\Extras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-System\Desktop\Unity\JetJumpReboot\Extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFB60BDE-608D-4B55-8709-C5AD34088C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62C6D65-DF81-4BB4-8D5B-2B06CE437E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{62EDC830-6BEA-400A-8865-6363DCDFDBAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62EDC830-6BEA-400A-8865-6363DCDFDBAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Stor</t>
   </si>
@@ -53,6 +53,66 @@
   </si>
   <si>
     <t>Svært stor</t>
+  </si>
+  <si>
+    <t>Kildekoden blir lekket</t>
+  </si>
+  <si>
+    <t>En API viser seg å ha en vulnerability</t>
+  </si>
+  <si>
+    <t>Unity rammeverket stopper å fungere</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Sannsynlighet</t>
+  </si>
+  <si>
+    <t>Konsekvens</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Hendelse</t>
+  </si>
+  <si>
+    <t>Forebygging</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Noen får en backdoor på pc-en min</t>
+  </si>
+  <si>
+    <t>Jeg aksepterer en malicious pull-request ved uhell</t>
+  </si>
+  <si>
+    <t>Opptil alt jeg bruker av kode og API, er open-source.</t>
+  </si>
+  <si>
+    <t>Jeg bruker ikke mange api-er, men hvis, f.eks MLAPI. Så må jeg fjerne multiplayer funksjonen inntil videre</t>
+  </si>
+  <si>
+    <t>Hvis et operativ-system hindrer unity-executables fra å kjøre, så mister jeg mange spillere - ikke mye jeg får gjort</t>
+  </si>
+  <si>
+    <t>Her er det bare min egne cyber-sec som spiller rollen, derfor er jeg ekstra forsiktig &amp; bruker f.eks. 2FA og passordmanager</t>
+  </si>
+  <si>
+    <t>Rull tilbake til commiten før PR-en ble accepted</t>
   </si>
 </sst>
 </file>
@@ -179,7 +239,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
@@ -188,6 +248,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Dårlig" xfId="2" builtinId="27"/>
@@ -505,81 +575,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB8B77-8C3B-42EB-BCF3-BA4C1BC22DBB}">
-  <dimension ref="B10:G15"/>
+  <dimension ref="A6:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="110.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="I11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="I12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Extras/RisikoAnalyse.xlsx
+++ b/Extras/RisikoAnalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-System\Desktop\Unity\JetJumpReboot\Extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62C6D65-DF81-4BB4-8D5B-2B06CE437E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16377C80-2DF1-445A-86C5-1F1C59086025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62EDC830-6BEA-400A-8865-6363DCDFDBAF}"/>
   </bookViews>
@@ -103,16 +103,19 @@
     <t>Opptil alt jeg bruker av kode og API, er open-source.</t>
   </si>
   <si>
-    <t>Jeg bruker ikke mange api-er, men hvis, f.eks MLAPI. Så må jeg fjerne multiplayer funksjonen inntil videre</t>
-  </si>
-  <si>
-    <t>Hvis et operativ-system hindrer unity-executables fra å kjøre, så mister jeg mange spillere - ikke mye jeg får gjort</t>
-  </si>
-  <si>
-    <t>Her er det bare min egne cyber-sec som spiller rollen, derfor er jeg ekstra forsiktig &amp; bruker f.eks. 2FA og passordmanager</t>
-  </si>
-  <si>
     <t>Rull tilbake til commiten før PR-en ble accepted</t>
+  </si>
+  <si>
+    <t>Hvis et operativ-system hindrer unity-executables fra å kjøre
+, så mister jeg mange spillere - ikke mye jeg får gjort</t>
+  </si>
+  <si>
+    <t>Jeg bruker ikke mange api-er, men hvis, f.eks MLAPI.
+ Så må jeg fjerne multiplayer funksjonen inntil videre</t>
+  </si>
+  <si>
+    <t>Her er det bare min egne cyber-sec som spiller rollen,
+ derfor er jeg ekstra forsiktig &amp; bruker f.eks. 2FA og passordmanager</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
@@ -258,6 +261,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Dårlig" xfId="2" builtinId="27"/>
@@ -578,15 +584,17 @@
   <dimension ref="A6:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I7" sqref="I7:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
     <col min="10" max="10" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="110.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -644,7 +652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,11 +669,11 @@
       <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -685,11 +693,11 @@
       <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -704,8 +712,8 @@
       <c r="J11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>24</v>
+      <c r="K11" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -726,7 +734,7 @@
         <v>20</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
